--- a/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\bldgs\EoCEDwEC\MEX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="19425" windowHeight="11025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EIA Table 1" sheetId="2" r:id="rId2"/>
     <sheet name="EoCEDwEC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -153,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,12 +388,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,9 +471,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,19 +718,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.453125" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,107 +738,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -816,23 +858,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -848,7 +890,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
@@ -861,7 +903,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
@@ -884,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
@@ -907,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -964,7 +1006,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
@@ -977,7 +1019,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
@@ -1023,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
@@ -1081,16 +1123,16 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1121,7 +1163,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1138,7 +1180,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1155,7 +1197,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1214,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1187,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>

--- a/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoCEDwEC/Elast of Component E Demand wrt E Cost.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\bldgs\EoCEDwEC\MEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\bldgs\EoCEDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="EIA Table 1" sheetId="2" r:id="rId2"/>
     <sheet name="EoCEDwEC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>EoCEDwEC Elasticity of Component Energy Demand wrt Energy Cost</t>
   </si>
@@ -32,15 +32,6 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>Price Responsiveness in the AEO 2003 NEMS Residential and Commercial Buildings Sector Models</t>
-  </si>
-  <si>
-    <t>http://www.eia.gov/oiaf/analysispaper/elasticity/pdf/tbl.pdf</t>
-  </si>
-  <si>
-    <t>Page 1, Table 1</t>
-  </si>
-  <si>
     <t>This is a subset of Table 1 that includes only values from AEO2003 (not AEO99).</t>
   </si>
   <si>
@@ -98,21 +89,12 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>We use same-price, long-run elasticities minus the 1-year short-run elasticities.</t>
-  </si>
-  <si>
-    <t>We calculate it this way because we assume that 1-year elasticities primarily reflect behavior</t>
-  </si>
-  <si>
     <t>change rather than equipment change, and the response of behavior to price per unit service</t>
   </si>
   <si>
     <t>provided (that is, controlling for things like efficiency of equipment) should be constant at</t>
   </si>
   <si>
-    <t>all timescales.  So, the portion of the long-run elasticitiy represented by the 1-year elasticity</t>
-  </si>
-  <si>
     <t>is still behavior change, and the rest is equipment efficiency change, which is what we are</t>
   </si>
   <si>
@@ -153,6 +135,51 @@
   </si>
   <si>
     <t>therefore wood consumption is inelastic with respect to the price of wood in stores.</t>
+  </si>
+  <si>
+    <t>kerosene</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>We assume kerosene and fuel oil-burning equipment is similar to diesel-burning equipment.</t>
+  </si>
+  <si>
+    <t>We assume LPG/propane/butane-burning equipment is similar to natural gas-burning equipment.</t>
+  </si>
+  <si>
+    <t>We assume hydrogen-using equipment is similar to electricity-using equipment (as it may</t>
+  </si>
+  <si>
+    <t>contain fuel cells that produce electricity from hydrogen).</t>
+  </si>
+  <si>
+    <t>Elasticity by Fuel (dimensionless)</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/analysis/studies/buildings/energyuse/pdf/price_elasticities.pdf</t>
+  </si>
+  <si>
+    <t>Price Elasticities for Energy Use in Buildings of the United States</t>
+  </si>
+  <si>
+    <t>Appendix</t>
+  </si>
+  <si>
+    <t>We use same-price, long-run elasticities minus the 3-year short-run elasticities.</t>
+  </si>
+  <si>
+    <t>We calculate it this way because we assume that 3-year elasticities primarily reflect behavior</t>
+  </si>
+  <si>
+    <t>all timescales.  So, the portion of the long-run elasticitiy represented by the 3-year elasticity</t>
   </si>
 </sst>
 </file>
@@ -340,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -377,9 +404,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,7 +426,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,23 +501,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -523,23 +536,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -716,11 +712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67.42578125" customWidth="1"/>
   </cols>
@@ -738,109 +736,129 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -856,9 +874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -871,17 +891,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -893,57 +913,57 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.2</v>
+        <v>-0.12</v>
       </c>
       <c r="C7" s="8">
-        <v>-0.28999999999999998</v>
+        <v>-0.21</v>
       </c>
       <c r="D7" s="9">
-        <v>-0.34</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" s="7">
-        <v>-0.49</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="F7" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
@@ -951,53 +971,53 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.14000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="8">
-        <v>-0.24</v>
+        <v>-0.13</v>
       </c>
       <c r="D8" s="9">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="E8" s="7">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="F8" s="19">
-        <v>-0.41</v>
+        <v>-0.21</v>
       </c>
       <c r="G8" s="9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="10">
-        <v>-0.15</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C9" s="11">
-        <v>-0.27</v>
+        <v>-0.12</v>
       </c>
       <c r="D9" s="12">
-        <v>-0.34</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E9" s="10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F9" s="11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
-        <v>-0.6</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1009,57 +1029,57 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="G13" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="C14" s="8">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="D14" s="9">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="E14" s="7">
-        <v>-0.45</v>
+        <v>-0.33</v>
       </c>
       <c r="F14" s="19">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -1067,48 +1087,48 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7">
-        <v>-0.14000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="C15" s="8">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="D15" s="9">
-        <v>-0.28999999999999998</v>
+        <v>-0.3</v>
       </c>
       <c r="E15" s="7">
-        <v>0.86</v>
+        <v>0.15</v>
       </c>
       <c r="F15" s="19">
-        <v>-0.4</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="G15" s="9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="10">
-        <v>-0.13</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C16" s="11">
-        <v>-0.23</v>
+        <v>-0.24</v>
       </c>
       <c r="D16" s="12">
-        <v>-0.28000000000000003</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E16" s="10">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="G16" s="12">
-        <v>-0.39</v>
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -1121,102 +1141,104 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="24">
-        <f>'EIA Table 1'!E7-'EIA Table 1'!B7</f>
-        <v>-0.28999999999999998</v>
+        <f>'EIA Table 1'!E7-'EIA Table 1'!D7</f>
+        <v>-3.0000000000000027E-2</v>
       </c>
       <c r="C2" s="24">
         <f>B2</f>
-        <v>-0.28999999999999998</v>
+        <v>-3.0000000000000027E-2</v>
       </c>
       <c r="D2" s="24">
-        <f>'EIA Table 1'!E14-'EIA Table 1'!B14</f>
-        <v>-0.35</v>
+        <f>'EIA Table 1'!E14-'EIA Table 1'!D14</f>
+        <v>-0.11000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="23">
         <f>B5</f>
-        <v>-0.44999999999999996</v>
+        <v>-7.9999999999999988E-2</v>
       </c>
       <c r="C3" s="23">
         <f t="shared" ref="C3:C6" si="0">B3</f>
-        <v>-0.44999999999999996</v>
+        <v>-7.9999999999999988E-2</v>
       </c>
       <c r="D3" s="23">
         <f>D5</f>
-        <v>-0.26</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="24">
-        <f>'EIA Table 1'!F8-'EIA Table 1'!B8</f>
-        <v>-0.26999999999999996</v>
+        <f>'EIA Table 1'!F8-'EIA Table 1'!D8</f>
+        <v>-0.06</v>
       </c>
       <c r="C4" s="24">
         <f t="shared" si="0"/>
-        <v>-0.26999999999999996</v>
+        <v>-0.06</v>
       </c>
       <c r="D4" s="24">
-        <f>'EIA Table 1'!F15-'EIA Table 1'!B15</f>
-        <v>-0.26</v>
+        <f>'EIA Table 1'!F15-'EIA Table 1'!D15</f>
+        <v>-0.27999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="24">
-        <f>'EIA Table 1'!G9-'EIA Table 1'!B9</f>
-        <v>-0.44999999999999996</v>
+        <f>'EIA Table 1'!G9-'EIA Table 1'!D9</f>
+        <v>-7.9999999999999988E-2</v>
       </c>
       <c r="C5" s="24">
         <f t="shared" si="0"/>
-        <v>-0.44999999999999996</v>
+        <v>-7.9999999999999988E-2</v>
       </c>
       <c r="D5" s="24">
-        <f>'EIA Table 1'!G16-'EIA Table 1'!B16</f>
-        <v>-0.26</v>
+        <f>'EIA Table 1'!G16-'EIA Table 1'!D16</f>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1231,7 +1253,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1241,6 +1263,74 @@
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="23">
+        <f>B5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" ref="C8:D8" si="1">C5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="1"/>
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="23">
+        <f>B5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" ref="C9:D9" si="2">C5</f>
+        <v>-7.9999999999999988E-2</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="23">
+        <f>B4</f>
+        <v>-0.06</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" ref="C10:D10" si="3">C4</f>
+        <v>-0.06</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="3"/>
+        <v>-0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="23">
+        <f>B2</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="C11" s="23">
+        <f t="shared" ref="C11:D11" si="4">C2</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="4"/>
+        <v>-0.11000000000000001</v>
       </c>
     </row>
   </sheetData>
